--- a/natmiOut/OldD4/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qa</t>
   </si>
   <si>
     <t>Cspg4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H2">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I2">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J2">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65998155111518</v>
+        <v>3.296849666666667</v>
       </c>
       <c r="N2">
-        <v>2.65998155111518</v>
+        <v>9.890549</v>
       </c>
       <c r="O2">
-        <v>0.05431120041286462</v>
+        <v>0.06532810080989171</v>
       </c>
       <c r="P2">
-        <v>0.05431120041286462</v>
+        <v>0.08920500662862836</v>
       </c>
       <c r="Q2">
-        <v>258.3450062653811</v>
+        <v>0.04120952188344444</v>
       </c>
       <c r="R2">
-        <v>258.3450062653811</v>
+        <v>0.370885696951</v>
       </c>
       <c r="S2">
-        <v>0.03063877817791168</v>
+        <v>3.215744820126423E-06</v>
       </c>
       <c r="T2">
-        <v>0.03063877817791168</v>
+        <v>4.393627177494234E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H3">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I3">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J3">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.72212420393737</v>
+        <v>5.936479666666667</v>
       </c>
       <c r="N3">
-        <v>5.72212420393737</v>
+        <v>17.809439</v>
       </c>
       <c r="O3">
-        <v>0.1168336804054357</v>
+        <v>0.1176331896601106</v>
       </c>
       <c r="P3">
-        <v>0.1168336804054357</v>
+        <v>0.1606271930958688</v>
       </c>
       <c r="Q3">
-        <v>555.749047469043</v>
+        <v>0.07420401700677778</v>
       </c>
       <c r="R3">
-        <v>555.749047469043</v>
+        <v>0.667836153061</v>
       </c>
       <c r="S3">
-        <v>0.06590981584717956</v>
+        <v>5.790438044804946E-06</v>
       </c>
       <c r="T3">
-        <v>0.06590981584717956</v>
+        <v>7.91139452484647E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H4">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I4">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J4">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.213520457607438</v>
+        <v>0.3593903333333333</v>
       </c>
       <c r="N4">
-        <v>0.213520457607438</v>
+        <v>1.078171</v>
       </c>
       <c r="O4">
-        <v>0.004359636389396141</v>
+        <v>0.00712143115395331</v>
       </c>
       <c r="P4">
-        <v>0.004359636389396141</v>
+        <v>0.009724258097482241</v>
       </c>
       <c r="Q4">
-        <v>20.73771674666478</v>
+        <v>0.004492259369888888</v>
       </c>
       <c r="R4">
-        <v>20.73771674666478</v>
+        <v>0.040430334329</v>
       </c>
       <c r="S4">
-        <v>0.002459417785938325</v>
+        <v>3.505490755326652E-07</v>
       </c>
       <c r="T4">
-        <v>0.002459417785938325</v>
+        <v>4.789502996836814E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,72 +711,72 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H5">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I5">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J5">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.3810403109014</v>
+        <v>0.3495983333333333</v>
       </c>
       <c r="N5">
-        <v>40.3810403109014</v>
+        <v>1.048795</v>
       </c>
       <c r="O5">
-        <v>0.8244954827923036</v>
+        <v>0.006927399630587783</v>
       </c>
       <c r="P5">
-        <v>0.8244954827923036</v>
+        <v>0.009459309582013322</v>
       </c>
       <c r="Q5">
-        <v>3921.921980153878</v>
+        <v>0.004369862633888888</v>
       </c>
       <c r="R5">
-        <v>3921.921980153878</v>
+        <v>0.03932876370499999</v>
       </c>
       <c r="S5">
-        <v>0.4651256833568334</v>
+        <v>3.409979656967972E-07</v>
       </c>
       <c r="T5">
-        <v>0.4651256833568334</v>
+        <v>4.659007518814238E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>75.03997882872351</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H6">
-        <v>75.03997882872351</v>
+        <v>0.037499</v>
       </c>
       <c r="I6">
-        <v>0.4358663048321371</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J6">
-        <v>0.4358663048321371</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.65998155111518</v>
+        <v>40.5237085</v>
       </c>
       <c r="N6">
-        <v>2.65998155111518</v>
+        <v>81.047417</v>
       </c>
       <c r="O6">
-        <v>0.05431120041286462</v>
+        <v>0.8029898787454566</v>
       </c>
       <c r="P6">
-        <v>0.05431120041286462</v>
+        <v>0.7309842325960072</v>
       </c>
       <c r="Q6">
-        <v>199.6049592804782</v>
+        <v>0.5065328483471666</v>
       </c>
       <c r="R6">
-        <v>199.6049592804782</v>
+        <v>3.039197090082999</v>
       </c>
       <c r="S6">
-        <v>0.02367242223495294</v>
+        <v>3.952679645018333E-05</v>
       </c>
       <c r="T6">
-        <v>0.02367242223495294</v>
+        <v>3.600327282104443E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>75.03997882872351</v>
+        <v>0.2443386666666667</v>
       </c>
       <c r="H7">
-        <v>75.03997882872351</v>
+        <v>0.733016</v>
       </c>
       <c r="I7">
-        <v>0.4358663048321371</v>
+        <v>0.0009622220702317923</v>
       </c>
       <c r="J7">
-        <v>0.4358663048321371</v>
+        <v>0.0009627815076873443</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.72212420393737</v>
+        <v>3.296849666666667</v>
       </c>
       <c r="N7">
-        <v>5.72212420393737</v>
+        <v>9.890549</v>
       </c>
       <c r="O7">
-        <v>0.1168336804054357</v>
+        <v>0.06532810080989171</v>
       </c>
       <c r="P7">
-        <v>0.1168336804054357</v>
+        <v>0.08920500662862836</v>
       </c>
       <c r="Q7">
-        <v>429.3880791187866</v>
+        <v>0.8055478517537779</v>
       </c>
       <c r="R7">
-        <v>429.3880791187866</v>
+        <v>7.249930665784</v>
       </c>
       <c r="S7">
-        <v>0.0509238645582561</v>
+        <v>6.286014040560522E-05</v>
       </c>
       <c r="T7">
-        <v>0.0509238645582561</v>
+        <v>8.588493077517036E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -909,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>75.03997882872351</v>
+        <v>0.2443386666666667</v>
       </c>
       <c r="H8">
-        <v>75.03997882872351</v>
+        <v>0.733016</v>
       </c>
       <c r="I8">
-        <v>0.4358663048321371</v>
+        <v>0.0009622220702317923</v>
       </c>
       <c r="J8">
-        <v>0.4358663048321371</v>
+        <v>0.0009627815076873443</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.213520457607438</v>
+        <v>5.936479666666667</v>
       </c>
       <c r="N8">
-        <v>0.213520457607438</v>
+        <v>17.809439</v>
       </c>
       <c r="O8">
-        <v>0.004359636389396141</v>
+        <v>0.1176331896601106</v>
       </c>
       <c r="P8">
-        <v>0.004359636389396141</v>
+        <v>0.1606271930958688</v>
       </c>
       <c r="Q8">
-        <v>16.0225706183615</v>
+        <v>1.450511526447111</v>
       </c>
       <c r="R8">
-        <v>16.0225706183615</v>
+        <v>13.054603738024</v>
       </c>
       <c r="S8">
-        <v>0.001900218603457816</v>
+        <v>0.0001131892512827207</v>
       </c>
       <c r="T8">
-        <v>0.001900218603457816</v>
+        <v>0.0001546488911444268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2443386666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.733016</v>
+      </c>
+      <c r="I9">
+        <v>0.0009622220702317923</v>
+      </c>
+      <c r="J9">
+        <v>0.0009627815076873443</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3593903333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.078171</v>
+      </c>
+      <c r="O9">
+        <v>0.00712143115395331</v>
+      </c>
+      <c r="P9">
+        <v>0.009724258097482241</v>
+      </c>
+      <c r="Q9">
+        <v>0.08781295485955555</v>
+      </c>
+      <c r="R9">
+        <v>0.7903165937359999</v>
+      </c>
+      <c r="S9">
+        <v>6.852398227970136E-06</v>
+      </c>
+      <c r="T9">
+        <v>9.362335872234818E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>75.03997882872351</v>
-      </c>
-      <c r="H9">
-        <v>75.03997882872351</v>
-      </c>
-      <c r="I9">
-        <v>0.4358663048321371</v>
-      </c>
-      <c r="J9">
-        <v>0.4358663048321371</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>40.3810403109014</v>
-      </c>
-      <c r="N9">
-        <v>40.3810403109014</v>
-      </c>
-      <c r="O9">
-        <v>0.8244954827923036</v>
-      </c>
-      <c r="P9">
-        <v>0.8244954827923036</v>
-      </c>
-      <c r="Q9">
-        <v>3030.192410011871</v>
-      </c>
-      <c r="R9">
-        <v>3030.192410011871</v>
-      </c>
-      <c r="S9">
-        <v>0.3593697994354703</v>
-      </c>
-      <c r="T9">
-        <v>0.3593697994354703</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2443386666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.733016</v>
+      </c>
+      <c r="I10">
+        <v>0.0009622220702317923</v>
+      </c>
+      <c r="J10">
+        <v>0.0009627815076873443</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3495983333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.048795</v>
+      </c>
+      <c r="O10">
+        <v>0.006927399630587783</v>
+      </c>
+      <c r="P10">
+        <v>0.009459309582013322</v>
+      </c>
+      <c r="Q10">
+        <v>0.08542039063555555</v>
+      </c>
+      <c r="R10">
+        <v>0.7687835157199999</v>
+      </c>
+      <c r="S10">
+        <v>6.665696813867129E-06</v>
+      </c>
+      <c r="T10">
+        <v>9.107248341052129E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2443386666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.733016</v>
+      </c>
+      <c r="I11">
+        <v>0.0009622220702317923</v>
+      </c>
+      <c r="J11">
+        <v>0.0009627815076873443</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>40.5237085</v>
+      </c>
+      <c r="N11">
+        <v>81.047417</v>
+      </c>
+      <c r="O11">
+        <v>0.8029898787454566</v>
+      </c>
+      <c r="P11">
+        <v>0.7309842325960072</v>
+      </c>
+      <c r="Q11">
+        <v>9.901508903278666</v>
+      </c>
+      <c r="R11">
+        <v>59.409053419672</v>
+      </c>
+      <c r="S11">
+        <v>0.0007726545835016291</v>
+      </c>
+      <c r="T11">
+        <v>0.0007037781015544602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H12">
+        <v>391.002091</v>
+      </c>
+      <c r="I12">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J12">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.296849666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.890549</v>
+      </c>
+      <c r="O12">
+        <v>0.06532810080989171</v>
+      </c>
+      <c r="P12">
+        <v>0.08920500662862836</v>
+      </c>
+      <c r="Q12">
+        <v>429.6917044597733</v>
+      </c>
+      <c r="R12">
+        <v>3867.225340137959</v>
+      </c>
+      <c r="S12">
+        <v>0.03353057278305689</v>
+      </c>
+      <c r="T12">
+        <v>0.04581235268872966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H13">
+        <v>391.002091</v>
+      </c>
+      <c r="I13">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J13">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.936479666666667</v>
+      </c>
+      <c r="N13">
+        <v>17.809439</v>
+      </c>
+      <c r="O13">
+        <v>0.1176331896601106</v>
+      </c>
+      <c r="P13">
+        <v>0.1606271930958688</v>
+      </c>
+      <c r="Q13">
+        <v>773.72532094855</v>
+      </c>
+      <c r="R13">
+        <v>6963.52788853695</v>
+      </c>
+      <c r="S13">
+        <v>0.06037690027266555</v>
+      </c>
+      <c r="T13">
+        <v>0.0824921145081448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H14">
+        <v>391.002091</v>
+      </c>
+      <c r="I14">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J14">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3593903333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.078171</v>
+      </c>
+      <c r="O14">
+        <v>0.00712143115395331</v>
+      </c>
+      <c r="P14">
+        <v>0.009724258097482241</v>
+      </c>
+      <c r="Q14">
+        <v>46.84079060617345</v>
+      </c>
+      <c r="R14">
+        <v>421.567115455561</v>
+      </c>
+      <c r="S14">
+        <v>0.003655175378847143</v>
+      </c>
+      <c r="T14">
+        <v>0.004994015004704022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H15">
+        <v>391.002091</v>
+      </c>
+      <c r="I15">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J15">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3495983333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.048795</v>
+      </c>
+      <c r="O15">
+        <v>0.006927399630587783</v>
+      </c>
+      <c r="P15">
+        <v>0.009459309582013322</v>
+      </c>
+      <c r="Q15">
+        <v>45.56455978114944</v>
+      </c>
+      <c r="R15">
+        <v>410.081038030345</v>
+      </c>
+      <c r="S15">
+        <v>0.003555585952003893</v>
+      </c>
+      <c r="T15">
+        <v>0.004857947363505932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H16">
+        <v>391.002091</v>
+      </c>
+      <c r="I16">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J16">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>40.5237085</v>
+      </c>
+      <c r="N16">
+        <v>81.047417</v>
+      </c>
+      <c r="O16">
+        <v>0.8029898787454566</v>
+      </c>
+      <c r="P16">
+        <v>0.7309842325960072</v>
+      </c>
+      <c r="Q16">
+        <v>5281.618252858158</v>
+      </c>
+      <c r="R16">
+        <v>31689.70951714895</v>
+      </c>
+      <c r="S16">
+        <v>0.4121459255594299</v>
+      </c>
+      <c r="T16">
+        <v>0.3754061429870621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H17">
+        <v>368.694479</v>
+      </c>
+      <c r="I17">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J17">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.296849666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.890549</v>
+      </c>
+      <c r="O17">
+        <v>0.06532810080989171</v>
+      </c>
+      <c r="P17">
+        <v>0.08920500662862836</v>
+      </c>
+      <c r="Q17">
+        <v>405.1767567309968</v>
+      </c>
+      <c r="R17">
+        <v>3646.590810578971</v>
+      </c>
+      <c r="S17">
+        <v>0.03161757276336596</v>
+      </c>
+      <c r="T17">
+        <v>0.04319864751397309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H18">
+        <v>368.694479</v>
+      </c>
+      <c r="I18">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J18">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.936479666666667</v>
+      </c>
+      <c r="N18">
+        <v>17.809439</v>
+      </c>
+      <c r="O18">
+        <v>0.1176331896601106</v>
+      </c>
+      <c r="P18">
+        <v>0.1606271930958688</v>
+      </c>
+      <c r="Q18">
+        <v>729.5824259319202</v>
+      </c>
+      <c r="R18">
+        <v>6566.241833387281</v>
+      </c>
+      <c r="S18">
+        <v>0.0569322525430315</v>
+      </c>
+      <c r="T18">
+        <v>0.07778574048645889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H19">
+        <v>368.694479</v>
+      </c>
+      <c r="I19">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J19">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3593903333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.078171</v>
+      </c>
+      <c r="O19">
+        <v>0.00712143115395331</v>
+      </c>
+      <c r="P19">
+        <v>0.009724258097482241</v>
+      </c>
+      <c r="Q19">
+        <v>44.16841056865655</v>
+      </c>
+      <c r="R19">
+        <v>397.515695117909</v>
+      </c>
+      <c r="S19">
+        <v>0.003446638810833559</v>
+      </c>
+      <c r="T19">
+        <v>0.004709094408084717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H20">
+        <v>368.694479</v>
+      </c>
+      <c r="I20">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J20">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3495983333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.048795</v>
+      </c>
+      <c r="O20">
+        <v>0.006927399630587783</v>
+      </c>
+      <c r="P20">
+        <v>0.009459309582013322</v>
+      </c>
+      <c r="Q20">
+        <v>42.96499178920055</v>
+      </c>
+      <c r="R20">
+        <v>386.684926102805</v>
+      </c>
+      <c r="S20">
+        <v>0.003352731200902438</v>
+      </c>
+      <c r="T20">
+        <v>0.004580789753876899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H21">
+        <v>368.694479</v>
+      </c>
+      <c r="I21">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J21">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>40.5237085</v>
+      </c>
+      <c r="N21">
+        <v>81.047417</v>
+      </c>
+      <c r="O21">
+        <v>0.8029898787454566</v>
+      </c>
+      <c r="P21">
+        <v>0.7309842325960072</v>
+      </c>
+      <c r="Q21">
+        <v>4980.289197518458</v>
+      </c>
+      <c r="R21">
+        <v>29881.73518511074</v>
+      </c>
+      <c r="S21">
+        <v>0.3886320068198991</v>
+      </c>
+      <c r="T21">
+        <v>0.3539883174231269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.4426515</v>
+      </c>
+      <c r="H22">
+        <v>0.885303</v>
+      </c>
+      <c r="I22">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J22">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.296849666666667</v>
+      </c>
+      <c r="N22">
+        <v>9.890549</v>
+      </c>
+      <c r="O22">
+        <v>0.06532810080989171</v>
+      </c>
+      <c r="P22">
+        <v>0.08920500662862836</v>
+      </c>
+      <c r="Q22">
+        <v>1.4593554502245</v>
+      </c>
+      <c r="R22">
+        <v>8.756132701346999</v>
+      </c>
+      <c r="S22">
+        <v>0.0001138793782431151</v>
+      </c>
+      <c r="T22">
+        <v>0.0001037278679729373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.4426515</v>
+      </c>
+      <c r="H23">
+        <v>0.885303</v>
+      </c>
+      <c r="I23">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J23">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.936479666666667</v>
+      </c>
+      <c r="N23">
+        <v>17.809439</v>
+      </c>
+      <c r="O23">
+        <v>0.1176331896601106</v>
+      </c>
+      <c r="P23">
+        <v>0.1606271930958688</v>
+      </c>
+      <c r="Q23">
+        <v>2.6277916291695</v>
+      </c>
+      <c r="R23">
+        <v>15.766749775017</v>
+      </c>
+      <c r="S23">
+        <v>0.0002050571550860004</v>
+      </c>
+      <c r="T23">
+        <v>0.0001867778155958867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.4426515</v>
+      </c>
+      <c r="H24">
+        <v>0.885303</v>
+      </c>
+      <c r="I24">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J24">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3593903333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.078171</v>
+      </c>
+      <c r="O24">
+        <v>0.00712143115395331</v>
+      </c>
+      <c r="P24">
+        <v>0.009724258097482241</v>
+      </c>
+      <c r="Q24">
+        <v>0.1590846701355</v>
+      </c>
+      <c r="R24">
+        <v>0.9545080208129999</v>
+      </c>
+      <c r="S24">
+        <v>1.241401696910431E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.130739852158357E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.4426515</v>
+      </c>
+      <c r="H25">
+        <v>0.885303</v>
+      </c>
+      <c r="I25">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J25">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3495983333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.048795</v>
+      </c>
+      <c r="O25">
+        <v>0.006927399630587783</v>
+      </c>
+      <c r="P25">
+        <v>0.009459309582013322</v>
+      </c>
+      <c r="Q25">
+        <v>0.1547502266475</v>
+      </c>
+      <c r="R25">
+        <v>0.9285013598849999</v>
+      </c>
+      <c r="S25">
+        <v>1.207578290188825E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.099931553755781E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.4426515</v>
+      </c>
+      <c r="H26">
+        <v>0.885303</v>
+      </c>
+      <c r="I26">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J26">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>40.5237085</v>
+      </c>
+      <c r="N26">
+        <v>81.047417</v>
+      </c>
+      <c r="O26">
+        <v>0.8029898787454566</v>
+      </c>
+      <c r="P26">
+        <v>0.7309842325960072</v>
+      </c>
+      <c r="Q26">
+        <v>17.93788035308775</v>
+      </c>
+      <c r="R26">
+        <v>71.751521412351</v>
+      </c>
+      <c r="S26">
+        <v>0.001399764986175764</v>
+      </c>
+      <c r="T26">
+        <v>0.000849990811442681</v>
       </c>
     </row>
   </sheetData>
